--- a/output/page_23.xlsx
+++ b/output/page_23.xlsx
@@ -7,17 +7,43 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="page_23" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t xml:space="preserve"> MASTER PACKAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WesternGlove Centric8 PROD                                         M12225BVS563:KONRAD                                     DUP REVIEW SHEET                                 MASTER</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -44,8 +70,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +372,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:26">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:Z1"/>
+    <mergeCell ref="A2:Z2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>